--- a/target/test-classes/API_Test_Case_Data_Maps.xlsx
+++ b/target/test-classes/API_Test_Case_Data_Maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tm0338\eclipse-workspace\APIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A70895-B009-410A-8AC8-92087E992F41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25CE79-B47B-45FF-9812-21D259599904}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3011EBB-A38A-4683-9848-69B9EA1DA7E5}"/>
   </bookViews>
@@ -31,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>GetWeatherInJSONFormatTest</t>
-  </si>
-  <si>
-    <t>GetWeatherInXMLFormatTest</t>
-  </si>
-  <si>
-    <t>GetTempInFahrenheitUnitTest</t>
-  </si>
-  <si>
-    <t>GetTempInCelsiusUnitTest</t>
-  </si>
-  <si>
-    <t>GetWeatherInDiffLangTest</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Weather_API_Test_001</t>
   </si>
@@ -94,13 +79,43 @@
   </si>
   <si>
     <t>API response contains weather data for requested city in specified language.</t>
+  </si>
+  <si>
+    <t>Test_Case_Name</t>
+  </si>
+  <si>
+    <t>Test_Case_ID</t>
+  </si>
+  <si>
+    <t>Test_Description</t>
+  </si>
+  <si>
+    <t>Success_Message</t>
+  </si>
+  <si>
+    <t>Failure_Message</t>
+  </si>
+  <si>
+    <t>getWeatherInJSONFormatTest</t>
+  </si>
+  <si>
+    <t>getWeatherInXMLFormatTest</t>
+  </si>
+  <si>
+    <t>getTempInFahrenheitUnitTest</t>
+  </si>
+  <si>
+    <t>getTempInCelsiusUnitTest</t>
+  </si>
+  <si>
+    <t>getWeatherInDiffLangTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +129,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,12 +160,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,103 +499,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98388E77-7FED-4D25-8A2B-4B4959713306}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
